--- a/Transfer application form.xlsx
+++ b/Transfer application form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="892" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="892" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Check List" sheetId="15" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="508">
   <si>
     <t>JOINING REPORT</t>
   </si>
@@ -1649,6 +1649,9 @@
   </si>
   <si>
     <t>Himanshu Mishra,Varanasi</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
 </sst>
 </file>
@@ -8871,8 +8874,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO77"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8998,11 +9001,15 @@
       <c r="C5" s="430" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="418"/>
+      <c r="D5" s="418" t="s">
+        <v>507</v>
+      </c>
       <c r="E5" s="430" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="413"/>
+      <c r="F5" s="413" t="s">
+        <v>198</v>
+      </c>
       <c r="G5" s="144"/>
       <c r="H5" s="141"/>
       <c r="J5" s="167" t="s">
@@ -10317,9 +10324,9 @@
       <c r="A16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="497">
+      <c r="B16" s="497" t="str">
         <f>MASTERSHEET!D5</f>
-        <v>0</v>
+        <v>A4</v>
       </c>
       <c r="C16" s="498"/>
     </row>
@@ -11946,7 +11953,7 @@
   </sheetPr>
   <dimension ref="A5:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -12110,7 +12117,7 @@
       </c>
       <c r="H16" s="286"/>
     </row>
-    <row r="17" spans="1:8" s="272" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="272" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="267"/>
       <c r="B17" s="268"/>
       <c r="C17" s="513" t="s">
@@ -12196,7 +12203,7 @@
       <c r="G22" s="277"/>
       <c r="H22" s="271"/>
     </row>
-    <row r="23" spans="1:8" s="272" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="272" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="267"/>
       <c r="B23" s="268"/>
       <c r="C23" s="513" t="s">
@@ -13058,8 +13065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:C69"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13140,9 +13147,7 @@
       <c r="F6" s="291" t="s">
         <v>307</v>
       </c>
-      <c r="G6" s="292">
-        <v>183882</v>
-      </c>
+      <c r="G6" s="292"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
     </row>
@@ -13452,7 +13457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="324" t="str">
         <f>+MASTERSHEET!B38</f>
         <v>Manoj Kumar</v>
@@ -14434,8 +14439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:E71"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
